--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -465,22 +465,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.83</v>
+        <v>11.89</v>
       </c>
       <c r="C2" t="n">
-        <v>25.42</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>28.67</v>
+        <v>13.95</v>
       </c>
       <c r="E2" t="n">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="F2" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G2" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -490,22 +490,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.43</v>
+        <v>32.43</v>
       </c>
       <c r="C3" t="n">
-        <v>23.16</v>
+        <v>32.43</v>
       </c>
       <c r="D3" t="n">
-        <v>23.43</v>
+        <v>34.97</v>
       </c>
       <c r="E3" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="F3" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>5.29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -515,22 +515,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.53</v>
+        <v>32.29</v>
       </c>
       <c r="C4" t="n">
-        <v>19.04</v>
+        <v>31.26</v>
       </c>
       <c r="D4" t="n">
-        <v>22.1</v>
+        <v>33.1</v>
       </c>
       <c r="E4" t="n">
-        <v>1011</v>
+        <v>1020</v>
       </c>
       <c r="F4" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="G4" t="n">
-        <v>2.81</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="5">
@@ -540,22 +540,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.6</v>
+        <v>13.98</v>
       </c>
       <c r="C5" t="n">
-        <v>23.87</v>
+        <v>8.6</v>
       </c>
       <c r="D5" t="n">
-        <v>31.93</v>
+        <v>16.97</v>
       </c>
       <c r="E5" t="n">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="F5" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="6">
@@ -565,22 +565,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.06</v>
+        <v>18.55</v>
       </c>
       <c r="C6" t="n">
-        <v>20.19</v>
+        <v>16.67</v>
       </c>
       <c r="D6" t="n">
-        <v>23.47</v>
+        <v>20.05</v>
       </c>
       <c r="E6" t="n">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F6" t="n">
         <v>65</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="7">
@@ -590,19 +590,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.64</v>
+        <v>14.49</v>
       </c>
       <c r="C7" t="n">
-        <v>22.22</v>
+        <v>12.99</v>
       </c>
       <c r="D7" t="n">
-        <v>25.12</v>
+        <v>16.39</v>
       </c>
       <c r="E7" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F7" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="G7" t="n">
         <v>2.24</v>
@@ -615,22 +615,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.25</v>
+        <v>19.92</v>
       </c>
       <c r="C8" t="n">
-        <v>14.12</v>
+        <v>17.12</v>
       </c>
       <c r="D8" t="n">
-        <v>22.18</v>
+        <v>21.16</v>
       </c>
       <c r="E8" t="n">
-        <v>1020</v>
+        <v>994</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>2.17</v>
+        <v>3.01</v>
       </c>
     </row>
   </sheetData>
